--- a/Projet/Partie2/T1.xlsx
+++ b/Projet/Partie2/T1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDC8D5A-9A7B-44ED-A1AB-9946356AC8F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B0FD9C-0761-40F1-973C-63C49FFED261}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="103">
   <si>
     <t>année</t>
   </si>
@@ -2108,13 +2108,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D71C3607-19B9-400C-81B0-BA7E9D13AB11}" name="Table2" displayName="Table2" ref="F71:I74" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D71C3607-19B9-400C-81B0-BA7E9D13AB11}" name="Table2" displayName="Table2" ref="F71:I74" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="F71:I74" xr:uid="{90BD5F90-45E3-4C1C-B913-0CC16D77D9BC}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{952FA8D0-251A-4180-8083-55D942772B27}" name="Critères/Modèle" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7680B85A-896F-4FC5-9ACC-0FC9DB5D7166}" name="Modèle linéaire" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F6A4D4AD-455B-4FD4-B111-30EEE4739CFD}" name="Modèle Quadratique" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7143463B-6CBD-4FA6-B5A4-54AE1066F9CD}" name="Modèle exponentiel" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{952FA8D0-251A-4180-8083-55D942772B27}" name="Critères/Modèle" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7680B85A-896F-4FC5-9ACC-0FC9DB5D7166}" name="Modèle linéaire" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F6A4D4AD-455B-4FD4-B111-30EEE4739CFD}" name="Modèle Quadratique" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7143463B-6CBD-4FA6-B5A4-54AE1066F9CD}" name="Modèle exponentiel" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15369,7 +15369,7 @@
         <v>4462.5</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E69" si="7">$Q$5*D38/G34+(1-$Q$5)*(E37+$Q$7*F37)</f>
+        <f t="shared" ref="E38:E68" si="7">$Q$5*D38/G34+(1-$Q$5)*(E37+$Q$7*F37)</f>
         <v>2898.0391035298203</v>
       </c>
       <c r="F38">
@@ -15377,11 +15377,11 @@
         <v>9.7089302920440623</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G69" si="8">$Q$8*(D38/E38)+(1-$Q$8)*G34</f>
+        <f t="shared" ref="G38:G68" si="8">$Q$8*(D38/E38)+(1-$Q$8)*G34</f>
         <v>1.4520346913125581</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H69" si="9">(E37+$Q$7*F37)*G34</f>
+        <f t="shared" ref="H38:H68" si="9">(E37+$Q$7*F37)*G34</f>
         <v>3991.3024353808232</v>
       </c>
       <c r="I38">
@@ -16365,7 +16365,7 @@
         <v>3828.0042937063586</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F99" si="11">$Q$6*(E68-E67)+(1-$Q$6)*$Q$7*F67</f>
+        <f t="shared" ref="F68" si="11">$Q$6*(E68-E67)+(1-$Q$6)*$Q$7*F67</f>
         <v>1.6632277089421181</v>
       </c>
       <c r="G68">
@@ -16392,7 +16392,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16428,7 +16428,7 @@
       <c r="G1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="10" t="s">
         <v>96</v>
       </c>
       <c r="I1" s="17" t="s">
